--- a/docs/CareConnect-Medication-1.xlsx
+++ b/docs/CareConnect-Medication-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="318">
   <si>
     <t>Path</t>
   </si>
@@ -475,6 +475,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -3009,10 +3015,10 @@
         <v>143</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3081,7 +3087,7 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3092,7 +3098,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3118,16 +3124,16 @@
         <v>63</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3176,7 +3182,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3194,18 +3200,18 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3231,13 +3237,13 @@
         <v>118</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3287,7 +3293,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3305,18 +3311,18 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3342,14 +3348,14 @@
         <v>69</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3398,7 +3404,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3416,18 +3422,18 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3453,14 +3459,14 @@
         <v>118</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3509,7 +3515,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3527,18 +3533,18 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3561,19 +3567,19 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3622,7 +3628,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3640,18 +3646,18 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3677,16 +3683,16 @@
         <v>118</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3735,7 +3741,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3753,18 +3759,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3790,13 +3796,13 @@
         <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3825,10 +3831,10 @@
         <v>110</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3846,7 +3852,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3864,7 +3870,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3875,7 +3881,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3898,13 +3904,13 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3955,7 +3961,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3970,10 +3976,10 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>115</v>
@@ -3984,7 +3990,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4007,13 +4013,13 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4064,7 +4070,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4082,7 +4088,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>115</v>
@@ -4093,7 +4099,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4116,13 +4122,13 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4173,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4188,21 +4194,21 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4228,13 +4234,13 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4263,10 +4269,10 @@
         <v>110</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4284,7 +4290,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4299,21 +4305,21 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4422,7 +4428,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4533,7 +4539,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4646,7 +4652,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4755,7 +4761,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4864,7 +4870,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>142</v>
@@ -4892,10 +4898,10 @@
         <v>143</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4964,7 +4970,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4975,7 +4981,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5001,23 +5007,23 @@
         <v>63</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5059,7 +5065,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5077,18 +5083,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5114,13 +5120,13 @@
         <v>118</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5170,7 +5176,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5188,18 +5194,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5225,14 +5231,14 @@
         <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5281,7 +5287,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5299,18 +5305,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5336,14 +5342,14 @@
         <v>118</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5392,7 +5398,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5410,18 +5416,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5444,19 +5450,19 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5505,7 +5511,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5523,18 +5529,18 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5560,16 +5566,16 @@
         <v>118</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5618,7 +5624,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5636,18 +5642,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5670,16 +5676,16 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5729,7 +5735,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5741,13 +5747,13 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5758,7 +5764,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5867,7 +5873,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5978,11 +5984,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6007,7 +6013,7 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>99</v>
@@ -6060,7 +6066,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6089,7 +6095,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6112,13 +6118,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6169,7 +6175,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>50</v>
@@ -6187,18 +6193,18 @@
         <v>113</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6221,17 +6227,17 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6280,7 +6286,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6298,7 +6304,7 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6309,7 +6315,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6332,13 +6338,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6389,7 +6395,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6404,21 +6410,21 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6441,13 +6447,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6498,7 +6504,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6510,13 +6516,13 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6527,7 +6533,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6636,7 +6642,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6747,11 +6753,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6776,7 +6782,7 @@
         <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>99</v>
@@ -6829,7 +6835,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6858,7 +6864,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6884,10 +6890,10 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6914,13 +6920,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -6938,7 +6944,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6953,7 +6959,7 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>114</v>
@@ -6967,7 +6973,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6990,13 +6996,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7047,7 +7053,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7059,13 +7065,13 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7076,7 +7082,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7185,7 +7191,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7296,11 +7302,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7325,7 +7331,7 @@
         <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>99</v>
@@ -7378,7 +7384,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7407,7 +7413,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7430,13 +7436,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7487,7 +7493,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>50</v>
@@ -7502,10 +7508,10 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7516,7 +7522,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7539,13 +7545,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7596,7 +7602,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7611,10 +7617,10 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7625,7 +7631,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7648,13 +7654,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7705,7 +7711,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7717,13 +7723,13 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7734,7 +7740,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7843,7 +7849,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7954,11 +7960,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7983,7 +7989,7 @@
         <v>102</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>99</v>
@@ -8036,7 +8042,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8065,7 +8071,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8091,10 +8097,10 @@
         <v>118</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8145,7 +8151,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8160,21 +8166,21 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8197,13 +8203,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8254,7 +8260,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8269,21 +8275,21 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8306,17 +8312,17 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8365,7 +8371,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8383,7 +8389,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>

--- a/docs/CareConnect-Medication-1.xlsx
+++ b/docs/CareConnect-Medication-1.xlsx
@@ -1172,11 +1172,11 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1189,21 +1189,21 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="152.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.5625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="195.390625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="193.3984375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="121.40234375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Medication-1.xlsx
+++ b/docs/CareConnect-Medication-1.xlsx
@@ -1172,11 +1172,11 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1189,21 +1189,21 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="152.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.5625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="193.3984375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="195.390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="121.40234375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
